--- a/DownloadDataForDK/ModelData/FuelMix.xlsx
+++ b/DownloadDataForDK/ModelData/FuelMix.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C78"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>id_DK1_Central_BP_Biogas</t>
+          <t>id_DK_Central_BH_Biogas</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2.544303797468355</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>id_DK1_Central_IndustryH_Biogas</t>
+          <t>id_DK_Central_BP_Biogas</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -477,28 +477,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.5185185185185185</v>
+        <v>2.504761904761905</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>id_DK1_Central_BH_Biomass</t>
+          <t>id_DK_Central_IndustryH_Biogas</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Biomass</t>
+          <t>Biogas</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9464720194647203</v>
+        <v>0.5666666666666668</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>id_DK1_Central_BP_Biomass</t>
+          <t>id_DK_Central_BH_Biomass</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -507,43 +507,43 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4.169188445667125</v>
+        <v>0.9870129870129872</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>id_DK1_Central_BP_Coal</t>
+          <t>id_DK_Central_BP_Biomass</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Coal</t>
+          <t>Biomass</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2.650371944739639</v>
+        <v>4.119366852886406</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>id_DK1_Central_BH_Natgas</t>
+          <t>id_DK_Central_BP_Coal</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Natgas</t>
+          <t>Coal</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2.650371944739639</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>id_DK1_Central_BP_Natgas</t>
+          <t>id_DK_Central_BH_Natgas</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -552,28 +552,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2.773333333333333</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>id_DK1_Central_BH_Oil</t>
+          <t>id_DK_Central_BP_Natgas</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Oil</t>
+          <t>Natgas</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.113122171945701</v>
+        <v>2.629268292682927</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>id_DK1_Central_BP_Oil</t>
+          <t>id_DK_Central_BH_Oil</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -582,13 +582,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2.692307692307692</v>
+        <v>1.124457308248915</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>id_DK1_Central_IndustryH_Oil</t>
+          <t>id_DK_Central_BP_Oil</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -597,28 +597,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.4929577464788733</v>
+        <v>3.292682926829269</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>id_DK1_Central_BH_Waste</t>
+          <t>id_DK_Central_IndustryH_Oil</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Waste</t>
+          <t>Oil</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0.4929577464788733</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>id_DK1_Central_BP_Waste</t>
+          <t>id_DK_Central_BH_Waste</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -627,28 +627,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5.739371534195933</v>
+        <v>1.04739336492891</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>id_DK1_LargeDecentral_BH_Biogas</t>
+          <t>id_DK_Central_BP_Waste</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Biogas</t>
+          <t>Waste</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.5</v>
+        <v>6.291200000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>id_DK1_LargeDecentral_BP_Biogas</t>
+          <t>id_DK_Decentral_BH_Biogas</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -657,13 +657,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3.046511627906977</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>id_DK1_LargeDecentral_IndustryH_Biogas</t>
+          <t>id_DK_Decentral_BP_Biogas</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -672,28 +672,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>2.617577197149644</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>id_DK1_LargeDecentral_BH_Biomass</t>
+          <t>id_DK_Decentral_IndustryH_Biogas</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Biomass</t>
+          <t>Biogas</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.032166508987701</v>
+        <v>0.7173913043478262</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>id_DK1_LargeDecentral_BP_Biomass</t>
+          <t>id_DK_Decentral_BH_Biomass</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -702,13 +702,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5.350877192982455</v>
+        <v>1.01746192893401</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>id_DK1_LargeDecentral_IndustryH_Biomass</t>
+          <t>id_DK_Decentral_BP_Biomass</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -717,28 +717,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1.117647058823529</v>
+        <v>6.595092024539877</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>id_DK1_LargeDecentral_BH_Natgas</t>
+          <t>id_DK_Decentral_IndustryH_Biomass</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Natgas</t>
+          <t>Biomass</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.9939393939393939</v>
+        <v>0.9711538461538463</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>id_DK1_LargeDecentral_BP_Natgas</t>
+          <t>id_DK_Decentral_BH_Natgas</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -747,148 +747,148 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2.24390243902439</v>
+        <v>1.013605442176871</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>id_DK1_LargeDecentral_BH_Oil</t>
+          <t>id_DK_Decentral_BP_Natgas</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Oil</t>
+          <t>Natgas</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1.150943396226415</v>
+        <v>2.405247813411079</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>id_DK1_LargeDecentral_BP_Oil</t>
+          <t>id_DK_Decentral_IndustryH_Natgas</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Oil</t>
+          <t>Natgas</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>id_DK1_LargeDecentral_BH_Waste</t>
+          <t>id_DK_Decentral_BH_Oil</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Waste</t>
+          <t>Oil</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.9385964912280701</v>
+        <v>1.144230769230769</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>id_DK1_LargeDecentral_BP_Waste</t>
+          <t>id_DK_Decentral_BP_Oil</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Waste</t>
+          <t>Oil</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>8.126213592233009</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>id_DK1_SmallDecentral_BH_Biogas</t>
+          <t>id_DK_Decentral_IndustryH_Oil</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Biogas</t>
+          <t>Oil</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1.857142857142857</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>id_DK1_SmallDecentral_BP_Biogas</t>
+          <t>id_DK_Decentral_BH_Waste</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Biogas</t>
+          <t>Waste</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2.567375886524823</v>
+        <v>1.022222222222222</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>id_DK1_SmallDecentral_IndustryH_Biogas</t>
+          <t>id_DK_Decentral_BP_Waste</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Biogas</t>
+          <t>Waste</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.5757575757575757</v>
+        <v>7.434540389972145</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>id_DK1_SmallDecentral_BH_Biomass</t>
+          <t>id_DK_nan_CD_Biogas</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Biomass</t>
+          <t>Biogas</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1.008758568164509</v>
+        <v>2.846153846153846</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>id_DK1_SmallDecentral_BP_Biomass</t>
+          <t>id_DK_nan_IndustryE_Biogas</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Biomass</t>
+          <t>Biogas</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>6.704545454545454</v>
+        <v>2.110204081632653</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>id_DK1_SmallDecentral_IndustryH_Biomass</t>
+          <t>id_DK_nan_IndustryE_Biomass</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -896,29 +896,31 @@
           <t>Biomass</t>
         </is>
       </c>
-      <c r="C31" t="n">
-        <v>0.9166666666666667</v>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>id_DK1_SmallDecentral_BH_Natgas</t>
+          <t>id_DK_nan_CD_Coal</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Natgas</t>
+          <t>Coal</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1.125</v>
+        <v>3.210526315789474</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>id_DK1_SmallDecentral_BP_Natgas</t>
+          <t>id_DK_nan_IndustryE_Natgas</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -927,28 +929,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2.522058823529412</v>
+        <v>2.452631578947368</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>id_DK1_SmallDecentral_IndustryH_Natgas</t>
+          <t>id_DK_nan_CD_Oil</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Natgas</t>
+          <t>Oil</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>id_DK1_SmallDecentral_BH_Oil</t>
+          <t>id_DK_nan_IndustryE_Oil</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -957,656 +959,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1.136363636363636</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>id_DK1_SmallDecentral_BP_Oil</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Oil</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>2.111111111111111</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>id_DK1_SmallDecentral_IndustryH_Oil</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Oil</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>id_DK1_SmallDecentral_BH_Waste</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Waste</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>1.083333333333333</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>id_DK1_SmallDecentral_BP_Waste</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Waste</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>11.28571428571429</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>id_DK1_nan_CD_Biogas</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>2.791666666666667</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>id_DK1_nan_IndustryE_Biogas</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>2.090909090909091</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>id_DK1_nan_IndustryE_Biomass</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Biomass</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>id_DK1_nan_IndustryE_Natgas</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Natgas</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>2.524390243902439</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>id_DK1_nan_IndustryE_Oil</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Oil</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
         <v>11</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>id_DK2_Central_BH_Biogas</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>id_DK2_Central_BP_Biogas</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>2.384615384615385</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>id_DK2_Central_IndustryH_Biogas</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>id_DK2_Central_BH_Biomass</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Biomass</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>1.1171875</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>id_DK2_Central_BP_Biomass</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Biomass</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>4.085293195359047</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>id_DK2_Central_BH_Natgas</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Natgas</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>1.12</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>id_DK2_Central_BP_Natgas</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Natgas</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>2.546153846153846</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>id_DK2_Central_BH_Oil</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Oil</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>1.129787234042553</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>id_DK2_Central_BP_Oil</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Oil</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>5.588235294117647</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>id_DK2_Central_BH_Waste</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Waste</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>1.178571428571429</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>id_DK2_Central_BP_Waste</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Waste</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>6.712270803949225</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>id_DK2_LargeDecentral_IndustryH_Biogas</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>id_DK2_LargeDecentral_BH_Biomass</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Biomass</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>1.022535211267606</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>id_DK2_LargeDecentral_BP_Biomass</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Biomass</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>8.263999999999999</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>id_DK2_LargeDecentral_BH_Natgas</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Natgas</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>1.030042918454936</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>id_DK2_LargeDecentral_BP_Natgas</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Natgas</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>2.875</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>id_DK2_LargeDecentral_BH_Oil</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Oil</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>1.142857142857143</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>id_DK2_LargeDecentral_BP_Oil</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Oil</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>id_DK2_LargeDecentral_BH_Waste</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Waste</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>1.272727272727273</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>id_DK2_LargeDecentral_BP_Waste</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Waste</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>6.273972602739726</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>id_DK2_SmallDecentral_BH_Biogas</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>1.666666666666667</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>id_DK2_SmallDecentral_BP_Biogas</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>2.572916666666667</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>id_DK2_SmallDecentral_BH_Biomass</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Biomass</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>1.023675310033822</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>id_DK2_SmallDecentral_BP_Biomass</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Biomass</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>5.17</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>id_DK2_SmallDecentral_IndustryH_Biomass</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Biomass</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>id_DK2_SmallDecentral_BH_Natgas</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Natgas</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>0.9714285714285714</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>id_DK2_SmallDecentral_BP_Natgas</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Natgas</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>2.518518518518519</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>id_DK2_SmallDecentral_BH_Oil</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Oil</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>1.125</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>id_DK2_SmallDecentral_BH_Waste</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Waste</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>1.15</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>id_DK2_nan_CD_Biogas</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>id_DK2_nan_IndustryE_Biogas</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="C75" t="n">
-        <v>2.222222222222222</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>id_DK2_nan_CD_Coal</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Coal</t>
-        </is>
-      </c>
-      <c r="C76" t="n">
-        <v>3.210526315789474</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>id_DK2_nan_IndustryE_Natgas</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Natgas</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>id_DK2_nan_CD_Oil</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Oil</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
-        <v>2.6</v>
       </c>
     </row>
   </sheetData>

--- a/DownloadDataForDK/ModelData/FuelMix.xlsx
+++ b/DownloadDataForDK/ModelData/FuelMix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2.504761904761905</v>
+        <v>2.595057034220532</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.5666666666666668</v>
+        <v>0.6578947368421052</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9870129870129872</v>
+        <v>1.014458272327965</v>
       </c>
     </row>
     <row r="6">
@@ -522,43 +522,43 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4.119366852886406</v>
+        <v>4.261060393258427</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>id_DK_Central_BP_Coal</t>
+          <t>id_DK_Central_IndustryH_Biomass</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Coal</t>
+          <t>Biomass</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2.650371944739639</v>
+        <v>0.9711538461538463</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>id_DK_Central_BH_Natgas</t>
+          <t>id_DK_Central_BP_Coal</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Natgas</t>
+          <t>Coal</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.1</v>
+        <v>2.650371944739639</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>id_DK_Central_BP_Natgas</t>
+          <t>id_DK_Central_BH_Natgas</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -567,43 +567,43 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2.629268292682927</v>
+        <v>1.019108280254777</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>id_DK_Central_BH_Oil</t>
+          <t>id_DK_Central_BP_Natgas</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Oil</t>
+          <t>Natgas</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.124457308248915</v>
+        <v>2.489051094890511</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>id_DK_Central_BP_Oil</t>
+          <t>id_DK_Central_IndustryH_Natgas</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Oil</t>
+          <t>Natgas</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3.292682926829269</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>id_DK_Central_IndustryH_Oil</t>
+          <t>id_DK_Central_BH_Oil</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -612,73 +612,73 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.4929577464788733</v>
+        <v>1.127044025157233</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>id_DK_Central_BH_Waste</t>
+          <t>id_DK_Central_BP_Oil</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Waste</t>
+          <t>Oil</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.04739336492891</v>
+        <v>3.369565217391304</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>id_DK_Central_BP_Waste</t>
+          <t>id_DK_Central_IndustryH_Oil</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Waste</t>
+          <t>Oil</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6.291200000000001</v>
+        <v>0.5000000000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BH_Biogas</t>
+          <t>id_DK_Central_BH_Waste</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Biogas</t>
+          <t>Waste</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.75</v>
+        <v>1.035805626598465</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BP_Biogas</t>
+          <t>id_DK_Central_BP_Waste</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Biogas</t>
+          <t>Waste</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2.617577197149644</v>
+        <v>6.546302050963331</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_IndustryH_Biogas</t>
+          <t>id_DK_nan_CD_Biogas</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -687,28 +687,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.7173913043478262</v>
+        <v>2.846153846153846</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BH_Biomass</t>
+          <t>id_DK_nan_IndustryE_Biogas</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Biomass</t>
+          <t>Biogas</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.01746192893401</v>
+        <v>2.110204081632653</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BP_Biomass</t>
+          <t>id_DK_nan_IndustryE_Biomass</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -716,29 +716,31 @@
           <t>Biomass</t>
         </is>
       </c>
-      <c r="C19" t="n">
-        <v>6.595092024539877</v>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_IndustryH_Biomass</t>
+          <t>id_DK_nan_CD_Coal</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Biomass</t>
+          <t>Coal</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.9711538461538463</v>
+        <v>3.210526315789474</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BH_Natgas</t>
+          <t>id_DK_nan_IndustryE_Natgas</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -747,218 +749,36 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.013605442176871</v>
+        <v>2.452631578947368</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BP_Natgas</t>
+          <t>id_DK_nan_CD_Oil</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Natgas</t>
+          <t>Oil</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2.405247813411079</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_IndustryH_Natgas</t>
+          <t>id_DK_nan_IndustryE_Oil</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Natgas</t>
+          <t>Oil</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_BH_Oil</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Oil</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>1.144230769230769</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_BP_Oil</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Oil</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_IndustryH_Oil</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Oil</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_BH_Waste</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Waste</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>1.022222222222222</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_BP_Waste</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Waste</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>7.434540389972145</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>id_DK_nan_CD_Biogas</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>2.846153846153846</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>id_DK_nan_IndustryE_Biogas</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>2.110204081632653</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>id_DK_nan_IndustryE_Biomass</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Biomass</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>id_DK_nan_CD_Coal</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Coal</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>3.210526315789474</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>id_DK_nan_IndustryE_Natgas</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Natgas</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>2.452631578947368</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>id_DK_nan_CD_Oil</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Oil</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>id_DK_nan_IndustryE_Oil</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Oil</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
         <v>11</v>
       </c>
     </row>
